--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr4_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr4_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.64453125" customWidth="true"/>
+    <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.23748905261127218</v>
+        <v>0.19817807312560187</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.27636086056553605</v>
+        <v>0.21994157138620934</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0006786901148200194</v>
+        <v>0.0018867862505503588</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00044170841318729457</v>
+        <v>0.0010449573840733656</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0020754759315966534</v>
+        <v>-0.00015209167781816458</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00024767870060311896</v>
+        <v>0.00074375948421357752</v>
       </c>
       <c r="H3" s="0">
-        <v>1.6673898473521082e-05</v>
+        <v>-9.5624614821836378e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-9.2062455175207002e-05</v>
+        <v>-0.00062408450165697899</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00063370331182530104</v>
+        <v>0.002163888813836945</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.32562113626833589</v>
+        <v>0.37955577869646678</v>
       </c>
       <c r="C4" s="0">
-        <v>0.017230688744561171</v>
+        <v>0.049642295140844651</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.518333084878355e-05</v>
+        <v>-0.00012695742456275409</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00018170425365670139</v>
+        <v>-4.9209308169724893e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>8.2415700699714152e-06</v>
+        <v>0.00034555844463491183</v>
       </c>
       <c r="I4" s="0">
-        <v>-5.4573213009995948e-05</v>
+        <v>-0.010801413299112855</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00060190560421159874</v>
+        <v>0.0027642123126126648</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00065351976729083328</v>
+        <v>-0.0013056344772652273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.34789738716785823</v>
+        <v>0.3923529663254639</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0062825440455920286</v>
+        <v>-0.00047385353751752863</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00051486309760438199</v>
+        <v>1.0906999844592567e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0011880625487067052</v>
+        <v>0.0087368501524395549</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00026514224507670953</v>
+        <v>-0.0015949615673790576</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0001090282749628392</v>
+        <v>0.00075169870973427338</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00053858000588791546</v>
+        <v>-0.0013007165367156267</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0035323019572271463</v>
+        <v>-0.013181814708800421</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31428958963181503</v>
+        <v>0.37654109405930214</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.012327438605691996</v>
+        <v>-0.017219169660973754</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>3.1165726901885388e-05</v>
+        <v>-0.00032963247158891782</v>
       </c>
       <c r="F6" s="0">
-        <v>-3.2763612939196812e-05</v>
+        <v>0.000494065381237958</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00010874851329800066</v>
+        <v>0.00071586119599074971</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0014223225702667318</v>
+        <v>-0.006382575937771578</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0022074068530871793</v>
+        <v>-0.0010395694113458087</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.2912880300161953</v>
+        <v>0.28652499040767565</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0042337113283290448</v>
+        <v>-0.02481615471126342</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0017889037830338317</v>
+        <v>-0.0029583718358324454</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0015202556711377084</v>
+        <v>0.0079893992853660774</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.00013538635667674175</v>
+        <v>0.0027190143461240279</v>
       </c>
       <c r="H7" s="0">
-        <v>-4.6705755770466657e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-5.0889977480945774e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0063183913480525655</v>
+        <v>0.01058601553237426</v>
       </c>
     </row>
     <row r="8">
